--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-521848.8708903086</v>
+        <v>-523736.4524067102</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>131.8079380667077</v>
+        <v>107.7694903106428</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>68.49439899867242</v>
+        <v>185.0073106919076</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>116.3670469670636</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>118.525818356609</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>34.05110737787441</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>24.83423034639274</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>362.4006936231293</v>
       </c>
       <c r="G8" t="n">
-        <v>283.6641392114951</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>149.6482469700828</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338501</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>211.4593910168942</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.48676233491292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>195.8155841663235</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>102.2825523293363</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>28.30910107930766</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>123.6166104457076</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>89.62283052204108</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>170.3224498695708</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>23.30984749387455</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.35845141792559</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002182</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404422</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533805</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965553</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801234</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437442</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897881</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>21.84773706512763</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523546</v>
+        <v>6.749002612112151</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952712</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080342</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.381396723538</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
         <v>218.1054622689367</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1794.6828813766</v>
+        <v>688.4561315142857</v>
       </c>
       <c r="C2" t="n">
-        <v>1425.720364436189</v>
+        <v>688.4561315142857</v>
       </c>
       <c r="D2" t="n">
-        <v>1067.454665829438</v>
+        <v>330.1904329075352</v>
       </c>
       <c r="E2" t="n">
-        <v>681.6664132311939</v>
+        <v>330.1904329075352</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.6828813766</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y2" t="n">
-        <v>1794.6828813766</v>
+        <v>1075.055971578407</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.7691122461817</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>369.7691122461817</v>
+        <v>541.2529128004671</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.7691122461817</v>
+        <v>541.2529128004671</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1637.643464250441</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2401.248554487333</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2401.248554487333</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>2027.782796226253</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1637.643464250441</v>
+        <v>976.0491016702019</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4665,28 +4665,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>554.8972444826458</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>327.5890571512475</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>327.5890571512475</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V7" t="n">
-        <v>327.5890571512475</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>224.6669506791651</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1060.400888678774</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C8" t="n">
-        <v>1060.400888678774</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D8" t="n">
-        <v>1060.400888678774</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E8" t="n">
-        <v>674.6126360805299</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F8" t="n">
-        <v>667.6671353313264</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.140060718708</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1447.000728742896</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>428.8224802162921</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5069,7 +5069,7 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028567</v>
       </c>
       <c r="C13" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909233</v>
+        <v>1085.400916011945</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909233</v>
+        <v>796.2722772255033</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033465</v>
+        <v>796.2722772255033</v>
       </c>
       <c r="W13" t="n">
-        <v>619.9540936663859</v>
+        <v>506.8551071885427</v>
       </c>
       <c r="X13" t="n">
-        <v>619.9540936663859</v>
+        <v>278.8655562905254</v>
       </c>
       <c r="Y13" t="n">
-        <v>565.9270610048577</v>
+        <v>278.8655562905254</v>
       </c>
     </row>
     <row r="14">
@@ -5267,13 +5267,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.0596387883053</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>506.0596387883053</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0596387883053</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883053</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903949</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903949</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5443,43 +5443,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1301.12275119798</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1077.337335987485</v>
       </c>
       <c r="U16" t="n">
-        <v>898.792518248838</v>
+        <v>788.2086972010437</v>
       </c>
       <c r="V16" t="n">
-        <v>898.792518248838</v>
+        <v>533.5242089951569</v>
       </c>
       <c r="W16" t="n">
-        <v>609.3753482118773</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="X16" t="n">
-        <v>506.0596387883052</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0596387883052</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>410.8745301331628</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.3055067228584</v>
+        <v>674.9958217162119</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>506.0596387883051</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>506.0596387883051</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404653</v>
+        <v>506.0596387883051</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404653</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550792</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181187</v>
+        <v>1209.499100520941</v>
       </c>
       <c r="X19" t="n">
-        <v>413.3055067228584</v>
+        <v>981.5095496229241</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.3055067228584</v>
+        <v>856.6442865464517</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514079</v>
@@ -5774,10 +5774,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>656.1762782006411</v>
+        <v>672.7698012891906</v>
       </c>
       <c r="C22" t="n">
-        <v>656.1762782006411</v>
+        <v>503.8336183612837</v>
       </c>
       <c r="D22" t="n">
-        <v>506.0596387883054</v>
+        <v>503.8336183612837</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883054</v>
+        <v>355.9205247788906</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>355.9205247788906</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>187.7452030987112</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W22" t="n">
-        <v>837.8247430308809</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X22" t="n">
-        <v>837.8247430308809</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y22" t="n">
-        <v>837.8247430308809</v>
+        <v>854.4182661194303</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123425</v>
+        <v>245.1301850426788</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123425</v>
+        <v>245.1301850426788</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123425</v>
+        <v>245.1301850426788</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262962</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227918</v>
+        <v>786.0822064765198</v>
       </c>
       <c r="V25" t="n">
-        <v>620.2426249169048</v>
+        <v>762.5369059776566</v>
       </c>
       <c r="W25" t="n">
-        <v>330.8254548799441</v>
+        <v>473.1197359406962</v>
       </c>
       <c r="X25" t="n">
-        <v>247.6350999123425</v>
+        <v>245.1301850426788</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.6350999123425</v>
+        <v>245.1301850426788</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515096</v>
@@ -6303,7 +6303,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
         <v>674.428562457161</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,25 +6400,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
@@ -6452,7 +6452,7 @@
         <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,28 +6461,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6540,7 +6540,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
         <v>674.428562457161</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542228</v>
+        <v>488.0294937553498</v>
       </c>
       <c r="C31" t="n">
-        <v>326.357112307687</v>
+        <v>374.8541761088135</v>
       </c>
       <c r="D31" t="n">
-        <v>326.357112307687</v>
+        <v>280.4984019778483</v>
       </c>
       <c r="E31" t="n">
-        <v>326.357112307687</v>
+        <v>188.3461736768257</v>
       </c>
       <c r="F31" t="n">
-        <v>326.357112307687</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G31" t="n">
-        <v>213.9426559088786</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>119.2855127381926</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864675</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667517</v>
+        <v>671.4509053667504</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962064</v>
+        <v>997.6688721962043</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286026</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056077</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899273</v>
+        <v>1929.308888700404</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1785.149743897327</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167073</v>
+        <v>1617.125193968204</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662003</v>
+        <v>1383.757420463132</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737487</v>
+        <v>1184.833797538615</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981897</v>
+        <v>951.1774927830253</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652506</v>
+        <v>778.9488071663785</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030915</v>
+        <v>613.917093304219</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,28 +6689,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L33" t="n">
-        <v>880.810628064685</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,13 +6880,13 @@
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,46 +7099,46 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7196,10 +7196,10 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,16 +7248,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7324,25 +7324,25 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525405</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254962</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649697</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.18649035013</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7421,16 +7421,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7488,7 +7488,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
         <v>674.428562457161</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083208</v>
@@ -7795,7 +7795,7 @@
         <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,52 +7804,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>124.3400780863228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>223.6742649934473</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>124.340078086322</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298287</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464275</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>10.08817004149506</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.0978910171819</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.105225817279706</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>123.4271030597008</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>197.4005543097295</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>94.9680429063872</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>59.29099784549505</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>116.2005484670202</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>228.8277958299535</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3512039711115</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338585</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965504</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801186</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437393</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348208</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389793</v>
       </c>
       <c r="I31" t="n">
-        <v>33.36825177058702</v>
+        <v>55.21598883571514</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>48.01209316312386</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1214383.181099411</v>
+        <v>1214383.18109941</v>
       </c>
     </row>
     <row r="12">
@@ -26314,31 +26314,31 @@
         <v>225786.486712678</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>215065.9828557399</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="F2" t="n">
         <v>215065.9828557399</v>
       </c>
       <c r="G2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="H2" t="n">
         <v>215065.9828557399</v>
       </c>
       <c r="I2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="J2" t="n">
         <v>215065.9828557399</v>
       </c>
       <c r="K2" t="n">
-        <v>223752.1755398985</v>
+        <v>223752.1755398986</v>
       </c>
       <c r="L2" t="n">
         <v>225786.4867126782</v>
@@ -26353,7 +26353,7 @@
         <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.022076953129727e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284588</v>
+        <v>44162.60530284546</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086666</v>
+        <v>10342.90680086707</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028459</v>
+        <v>44162.60530284546</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26430,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="H4" t="n">
-        <v>15045.66962143906</v>
-      </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
         <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563571</v>
+        <v>33210.29213563555</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275951</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275955</v>
+        <v>37464.45686275949</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,7 +26482,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,16 +26494,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002542</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-603815.4288164986</v>
       </c>
       <c r="C6" t="n">
-        <v>-13847.54960195415</v>
+        <v>-13847.54960195403</v>
       </c>
       <c r="D6" t="n">
-        <v>-13847.54960195412</v>
+        <v>-13847.54960195402</v>
       </c>
       <c r="E6" t="n">
-        <v>-417127.0491913117</v>
+        <v>-417224.5083172841</v>
       </c>
       <c r="F6" t="n">
-        <v>108032.9872855842</v>
+        <v>107935.528159612</v>
       </c>
       <c r="G6" t="n">
-        <v>108032.9872855841</v>
+        <v>107935.528159612</v>
       </c>
       <c r="H6" t="n">
-        <v>108032.9872855842</v>
+        <v>107935.528159612</v>
       </c>
       <c r="I6" t="n">
-        <v>108032.9872855841</v>
+        <v>107935.5281596117</v>
       </c>
       <c r="J6" t="n">
-        <v>-68390.23190700874</v>
+        <v>-68487.6910329809</v>
       </c>
       <c r="K6" t="n">
-        <v>49751.06957119409</v>
+        <v>49732.57583326045</v>
       </c>
       <c r="L6" t="n">
-        <v>80264.01722902655</v>
+        <v>80264.01722902615</v>
       </c>
       <c r="M6" t="n">
-        <v>-44194.09120394404</v>
+        <v>-44194.09120394395</v>
       </c>
       <c r="N6" t="n">
-        <v>90606.92402989321</v>
+        <v>90606.92402989329</v>
       </c>
       <c r="O6" t="n">
         <v>90606.92402989317</v>
       </c>
       <c r="P6" t="n">
-        <v>46444.31872704721</v>
+        <v>46444.31872704774</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26823,7 +26823,7 @@
         <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855735</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108333</v>
+        <v>12.92863350108384</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855738</v>
+        <v>55.20325662855682</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855735</v>
+        <v>55.20325662855683</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>275.0681076750037</v>
+        <v>299.1065554310686</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>157.2152563903647</v>
+        <v>40.70234469712952</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>290.5089987746479</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>209.2264401135259</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>145.7808728040629</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>187.3113086036262</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>44.47535211858212</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>130.1200308092999</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>136.8747513665082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-7.032208304403592e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855683</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32792,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32813,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32956,13 +32956,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32977,7 +32977,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,10 +33093,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33105,10 +33105,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33117,7 +33117,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,13 +33129,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33193,13 +33193,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647497</v>
@@ -33214,7 +33214,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33269,7 +33269,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813463</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,10 +33330,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
         <v>45.03122946298631</v>
@@ -33342,10 +33342,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
@@ -33354,7 +33354,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,13 +33366,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33430,13 +33430,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33451,7 +33451,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,10 +33567,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33579,10 +33579,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33591,7 +33591,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,13 +33603,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33667,13 +33667,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33688,7 +33688,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33743,7 +33743,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,10 +33804,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33816,10 +33816,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33828,7 +33828,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,13 +33840,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33904,13 +33904,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33925,7 +33925,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33980,7 +33980,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,10 +34041,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34053,10 +34053,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34065,7 +34065,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,13 +34077,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34141,13 +34141,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34162,7 +34162,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34217,7 +34217,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,10 +34278,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34290,10 +34290,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34302,7 +34302,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,13 +34314,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,37 +34369,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>274.915516674262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556563</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187486</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36601,22 +36601,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
@@ -36683,19 +36683,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36841,19 +36841,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
@@ -36920,19 +36920,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412286</v>
+        <v>67.71102679412239</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043209</v>
+        <v>94.42895660043162</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37078,19 +37078,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>472.9319699494717</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37315,19 +37315,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>434.7644551367884</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37482,7 +37482,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37552,19 +37552,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37789,19 +37789,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005179</v>
@@ -37868,19 +37868,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
